--- a/MEC/PerformanceReportTableMapping.xlsx
+++ b/MEC/PerformanceReportTableMapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/MEC/PerformanceReportTableMapping.xlsx
+++ b/MEC/PerformanceReportTableMapping.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Finance And Accounting\Month-End\6 Allocation in BW\3 Post-Allocation\Common\1 References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ptt-rpafile-u01.ptt.corp\RPA-PTT\Finance And Accounting\Month-End\6 Allocation in BW\Common\1 References\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="9630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="THB" sheetId="2" r:id="rId2"/>
     <sheet name="Additional" sheetId="3" r:id="rId3"/>
+    <sheet name="BeforePRORATE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>Column</t>
   </si>
@@ -67,9 +68,6 @@
     <t>50040200</t>
   </si>
   <si>
-    <t>50000500</t>
-  </si>
-  <si>
     <t>PerformanceReportTitle</t>
   </si>
   <si>
@@ -164,6 +162,42 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>X,Y</t>
+  </si>
+  <si>
+    <t>W,X</t>
+  </si>
+  <si>
+    <t>AB,AC</t>
+  </si>
+  <si>
+    <t>AA,AB</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>กำไร(ขาดทุน)จาก Dip tank</t>
+  </si>
+  <si>
+    <t>กำไร(ขาดทุน)จากการขนส่ง</t>
+  </si>
+  <si>
+    <t>Tax &amp; Fund Light oil</t>
+  </si>
+  <si>
+    <t>ต้นทุนอื่นๆ</t>
+  </si>
+  <si>
+    <t>50050200,50000500</t>
+  </si>
+  <si>
+    <t>ProfitCenterColumn</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -199,9 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,18 +519,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,10 +539,13 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,10 +553,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,10 +567,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,10 +581,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,10 +595,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,18 +609,24 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -577,18 +636,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,73 +656,94 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -688,120 +769,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
